--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -1,21 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sefazarquivos\AEMFPF\DIVERSOS\Previs-o-RCL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B022CD-C63B-4D45-9BC9-04F3BD105227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>ETS</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Holt-Winters</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +61,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,25 +92,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,81 +440,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>174742043.6282285</v>
+        <v>175598609.20164201</v>
       </c>
       <c r="C2">
-        <v>227326343.3347682</v>
+        <v>225775908.29512581</v>
       </c>
       <c r="D2">
-        <v>0.7660034075049269</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Holt</t>
-        </is>
+        <v>0.77078909851934974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>209909222.0479683</v>
+        <v>223013054.1621218</v>
       </c>
       <c r="C3">
-        <v>283715709.8609478</v>
+        <v>281576168.52532649</v>
       </c>
       <c r="D3">
-        <v>0.9452111400667167</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Holt-Winters</t>
-        </is>
+        <v>1.000913436877662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>176553242.6609861</v>
+        <v>176858885.13977379</v>
       </c>
       <c r="C4">
-        <v>226234881.8011016</v>
+        <v>226564299.24763349</v>
       </c>
       <c r="D4">
-        <v>0.7791380229177117</v>
+        <v>0.77947788905806392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>175598609.20164201</v>
+      </c>
+      <c r="C8">
+        <v>223013054.1621218</v>
+      </c>
+      <c r="D8">
+        <v>176858885.13977379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>225775908.29512581</v>
+      </c>
+      <c r="C9" s="2">
+        <v>281576168.52532649</v>
+      </c>
+      <c r="D9" s="2">
+        <v>226564299.24763349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.77078909851934974</v>
+      </c>
+      <c r="C10">
+        <v>1.000913436877662</v>
+      </c>
+      <c r="D10">
+        <v>0.77947788905806392</v>
       </c>
     </row>
   </sheetData>
